--- a/Requisitos/PC1-Producto - Pendientes - 202002.xlsx
+++ b/Requisitos/PC1-Producto - Pendientes - 202002.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ander\Desktop\PC1PrograWeb\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F879D39-DC33-46EB-8AEA-AA32FE3040C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA51DA-2862-4604-8C85-E20B43B2BADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="instrucciones" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="140">
   <si>
     <t>Práctica Calificada 1</t>
   </si>
@@ -827,6 +827,24 @@
       <t>Ver íconos de arriba, abajo, izquierda, derecha en el componente flechas de direcciones</t>
     </r>
   </si>
+  <si>
+    <t>Ambos</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>MOCKUP 1</t>
+  </si>
+  <si>
+    <t>MOCK UP 1</t>
+  </si>
+  <si>
+    <t>Preguntar</t>
+  </si>
 </sst>
 </file>
 
@@ -835,7 +853,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -912,8 +930,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -944,8 +969,20 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1102,11 +1139,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1321,6 +1373,21 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1733,7 +1800,9 @@
   </sheetPr>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -2842,11 +2911,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K132"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19:E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2862,7 +2931,7 @@
     <col min="11" max="11" width="71.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" customHeight="1">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1">
       <c r="A1" s="71" t="s">
         <v>70</v>
       </c>
@@ -2897,7 +2966,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="54" customHeight="1">
+    <row r="2" spans="1:13" ht="54" customHeight="1">
       <c r="A2" s="74"/>
       <c r="B2" s="75"/>
       <c r="C2" s="75" t="str">
@@ -2924,7 +2993,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="57" customHeight="1">
+    <row r="3" spans="1:13" ht="57" customHeight="1">
       <c r="A3" s="74"/>
       <c r="B3" s="25"/>
       <c r="C3" s="75" t="str">
@@ -2948,7 +3017,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="57" customHeight="1">
+    <row r="4" spans="1:13" ht="57" customHeight="1">
       <c r="A4" s="74"/>
       <c r="B4" s="25"/>
       <c r="C4" s="75" t="str">
@@ -2965,14 +3034,14 @@
         <v>36</v>
       </c>
       <c r="G4" s="77"/>
-      <c r="H4" s="75"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="75"/>
       <c r="J4" s="75"/>
       <c r="K4" s="76" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="57" customHeight="1">
+    <row r="5" spans="1:13" ht="57" customHeight="1">
       <c r="A5" s="74"/>
       <c r="B5" s="25"/>
       <c r="C5" s="75" t="str">
@@ -2989,14 +3058,14 @@
         <v>36</v>
       </c>
       <c r="G5" s="77"/>
-      <c r="H5" s="75"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="75"/>
       <c r="J5" s="75"/>
       <c r="K5" s="76" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="57" customHeight="1">
+    <row r="6" spans="1:13" ht="57" customHeight="1">
       <c r="A6" s="74"/>
       <c r="B6" s="25"/>
       <c r="C6" s="75" t="str">
@@ -3013,14 +3082,14 @@
         <v>36</v>
       </c>
       <c r="G6" s="77"/>
-      <c r="H6" s="75"/>
+      <c r="H6" s="77"/>
       <c r="I6" s="75"/>
       <c r="J6" s="75"/>
       <c r="K6" s="76" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="57" customHeight="1">
+    <row r="7" spans="1:13" ht="57" customHeight="1">
       <c r="A7" s="74"/>
       <c r="B7" s="25"/>
       <c r="C7" s="75" t="str">
@@ -3033,14 +3102,19 @@
       <c r="E7" s="75">
         <v>2</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="G7" s="77"/>
       <c r="H7" s="75"/>
       <c r="I7" s="75"/>
       <c r="J7" s="75"/>
       <c r="K7" s="76"/>
-    </row>
-    <row r="8" spans="1:11" ht="57" customHeight="1">
+      <c r="M7" s="85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="57" customHeight="1">
       <c r="A8" s="74"/>
       <c r="B8" s="25"/>
       <c r="C8" s="75" t="str">
@@ -3053,14 +3127,17 @@
       <c r="E8" s="75">
         <v>0.5</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="G8" s="77"/>
       <c r="H8" s="75"/>
       <c r="I8" s="75"/>
       <c r="J8" s="75"/>
       <c r="K8" s="76"/>
-    </row>
-    <row r="9" spans="1:11" ht="57" customHeight="1">
+      <c r="M8" s="85"/>
+    </row>
+    <row r="9" spans="1:13" ht="57" customHeight="1">
       <c r="A9" s="74"/>
       <c r="B9" s="25"/>
       <c r="C9" s="75" t="str">
@@ -3073,14 +3150,16 @@
       <c r="E9" s="75">
         <v>0.5</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="84" t="s">
+        <v>136</v>
+      </c>
       <c r="G9" s="77"/>
       <c r="H9" s="75"/>
       <c r="I9" s="75"/>
       <c r="J9" s="75"/>
       <c r="K9" s="76"/>
     </row>
-    <row r="10" spans="1:11" ht="57" customHeight="1">
+    <row r="10" spans="1:13" ht="57" customHeight="1">
       <c r="A10" s="74"/>
       <c r="B10" s="25"/>
       <c r="C10" s="78" t="str">
@@ -3093,7 +3172,9 @@
       <c r="E10" s="75">
         <v>0.5</v>
       </c>
-      <c r="F10" s="25"/>
+      <c r="F10" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="G10" s="77"/>
       <c r="H10" s="75"/>
       <c r="I10" s="75"/>
@@ -3101,8 +3182,11 @@
       <c r="K10" s="76" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="57" customHeight="1">
+      <c r="M10" s="86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="57" customHeight="1">
       <c r="A11" s="74"/>
       <c r="B11" s="25"/>
       <c r="C11" s="75" t="str">
@@ -3115,14 +3199,16 @@
       <c r="E11" s="75">
         <v>2</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="84" t="s">
+        <v>136</v>
+      </c>
       <c r="G11" s="77"/>
       <c r="H11" s="75"/>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
       <c r="K11" s="76"/>
     </row>
-    <row r="12" spans="1:11" ht="60.75" customHeight="1">
+    <row r="12" spans="1:13" ht="60.75" customHeight="1">
       <c r="A12" s="74"/>
       <c r="B12" s="25"/>
       <c r="C12" s="75" t="str">
@@ -3135,14 +3221,19 @@
       <c r="E12" s="75">
         <v>3</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="G12" s="77"/>
       <c r="H12" s="75"/>
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
       <c r="K12" s="76"/>
-    </row>
-    <row r="13" spans="1:11" ht="60.75" customHeight="1">
+      <c r="M12" s="87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="60.75" customHeight="1">
       <c r="A13" s="74"/>
       <c r="B13" s="25"/>
       <c r="C13" s="75" t="str">
@@ -3155,7 +3246,9 @@
       <c r="E13" s="75">
         <v>1</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="84" t="s">
+        <v>136</v>
+      </c>
       <c r="G13" s="77"/>
       <c r="H13" s="75"/>
       <c r="I13" s="75"/>
@@ -3164,7 +3257,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="60.75" customHeight="1">
+    <row r="14" spans="1:13" ht="60.75" customHeight="1">
       <c r="A14" s="74"/>
       <c r="B14" s="25"/>
       <c r="C14" s="75" t="str">
@@ -3177,14 +3270,16 @@
       <c r="E14" s="75">
         <v>1</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="G14" s="77"/>
       <c r="H14" s="75"/>
       <c r="I14" s="75"/>
       <c r="J14" s="75"/>
       <c r="K14" s="76"/>
     </row>
-    <row r="15" spans="1:11" ht="60.75" customHeight="1">
+    <row r="15" spans="1:13" ht="60.75" customHeight="1">
       <c r="A15" s="74"/>
       <c r="B15" s="25"/>
       <c r="C15" s="75" t="str">
@@ -3197,14 +3292,16 @@
       <c r="E15" s="75">
         <v>1</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="84" t="s">
+        <v>136</v>
+      </c>
       <c r="G15" s="77"/>
       <c r="H15" s="75"/>
       <c r="I15" s="75"/>
       <c r="J15" s="75"/>
       <c r="K15" s="76"/>
     </row>
-    <row r="16" spans="1:11" ht="57" customHeight="1">
+    <row r="16" spans="1:13" ht="57" customHeight="1">
       <c r="A16" s="74"/>
       <c r="B16" s="25"/>
       <c r="C16" s="75" t="str">
@@ -3217,7 +3314,9 @@
       <c r="E16" s="75">
         <v>1</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="G16" s="77"/>
       <c r="H16" s="75"/>
       <c r="I16" s="75"/>
@@ -3237,7 +3336,9 @@
       <c r="E17" s="75">
         <v>1</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="84" t="s">
+        <v>136</v>
+      </c>
       <c r="G17" s="77"/>
       <c r="H17" s="75"/>
       <c r="I17" s="75"/>
@@ -3257,7 +3358,9 @@
       <c r="E18" s="75">
         <v>2</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="G18" s="77"/>
       <c r="H18" s="75"/>
       <c r="I18" s="75"/>
@@ -3277,7 +3380,9 @@
       <c r="E19" s="75">
         <v>1</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="84" t="s">
+        <v>136</v>
+      </c>
       <c r="G19" s="77"/>
       <c r="H19" s="75"/>
       <c r="I19" s="75"/>
@@ -3297,7 +3402,9 @@
       <c r="E20" s="75">
         <v>2</v>
       </c>
-      <c r="F20" s="25"/>
+      <c r="F20" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="G20" s="77"/>
       <c r="H20" s="75"/>
       <c r="I20" s="75"/>
@@ -3317,7 +3424,9 @@
       <c r="E21" s="75">
         <v>1</v>
       </c>
-      <c r="F21" s="25"/>
+      <c r="F21" s="84" t="s">
+        <v>136</v>
+      </c>
       <c r="G21" s="77"/>
       <c r="H21" s="75"/>
       <c r="I21" s="75"/>
@@ -3337,7 +3446,9 @@
       <c r="E22" s="75">
         <v>1</v>
       </c>
-      <c r="F22" s="25"/>
+      <c r="F22" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="G22" s="77"/>
       <c r="H22" s="75"/>
       <c r="I22" s="75"/>
@@ -3357,7 +3468,9 @@
       <c r="E23" s="75">
         <v>3</v>
       </c>
-      <c r="F23" s="25"/>
+      <c r="F23" s="84" t="s">
+        <v>136</v>
+      </c>
       <c r="G23" s="77"/>
       <c r="H23" s="75"/>
       <c r="I23" s="75"/>
@@ -3377,7 +3490,9 @@
       <c r="E24" s="75">
         <v>1</v>
       </c>
-      <c r="F24" s="25"/>
+      <c r="F24" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="G24" s="77"/>
       <c r="H24" s="75"/>
       <c r="I24" s="75"/>
@@ -3397,7 +3512,9 @@
       <c r="E25" s="75">
         <v>1</v>
       </c>
-      <c r="F25" s="25"/>
+      <c r="F25" s="84" t="s">
+        <v>136</v>
+      </c>
       <c r="G25" s="77"/>
       <c r="H25" s="75"/>
       <c r="I25" s="75"/>
@@ -3417,7 +3534,9 @@
       <c r="E26" s="75">
         <v>1</v>
       </c>
-      <c r="F26" s="25"/>
+      <c r="F26" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="G26" s="77"/>
       <c r="H26" s="75"/>
       <c r="I26" s="75"/>
@@ -3437,7 +3556,9 @@
       <c r="E27" s="75">
         <v>1</v>
       </c>
-      <c r="F27" s="25"/>
+      <c r="F27" s="84" t="s">
+        <v>136</v>
+      </c>
       <c r="G27" s="77"/>
       <c r="H27" s="75"/>
       <c r="I27" s="75"/>
@@ -3457,7 +3578,9 @@
       <c r="E28" s="75">
         <v>1</v>
       </c>
-      <c r="F28" s="25"/>
+      <c r="F28" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="G28" s="77"/>
       <c r="H28" s="75"/>
       <c r="I28" s="75"/>
@@ -3477,7 +3600,9 @@
       <c r="E29" s="75">
         <v>1</v>
       </c>
-      <c r="F29" s="25"/>
+      <c r="F29" s="84" t="s">
+        <v>136</v>
+      </c>
       <c r="G29" s="77"/>
       <c r="H29" s="75"/>
       <c r="I29" s="75"/>
@@ -3497,7 +3622,9 @@
       <c r="E30" s="75">
         <v>1</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="83" t="s">
+        <v>135</v>
+      </c>
       <c r="G30" s="77"/>
       <c r="H30" s="75"/>
       <c r="I30" s="75"/>
@@ -3517,12 +3644,20 @@
       <c r="E31" s="75">
         <v>3.5</v>
       </c>
-      <c r="F31" s="25"/>
+      <c r="F31" s="84" t="s">
+        <v>136</v>
+      </c>
       <c r="G31" s="77"/>
       <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
+      <c r="I31" s="75">
+        <f>COUNT(E7:E31)</f>
+        <v>25</v>
+      </c>
       <c r="J31" s="75"/>
-      <c r="K31" s="76"/>
+      <c r="K31" s="76">
+        <f>I31/2</f>
+        <v>12.5</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="77.25" customHeight="1">
       <c r="A32" s="74"/>
@@ -3541,7 +3676,9 @@
         <v>36</v>
       </c>
       <c r="G32" s="77"/>
-      <c r="H32" s="75"/>
+      <c r="H32" s="75" t="s">
+        <v>134</v>
+      </c>
       <c r="I32" s="75"/>
       <c r="J32" s="75"/>
       <c r="K32" s="76"/>
@@ -4118,6 +4255,9 @@
       <c r="F132" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M7:M8"/>
+  </mergeCells>
   <conditionalFormatting sqref="D2:D34">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(D:D,D2)&gt;1</formula>
@@ -4223,7 +4363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32ACEAB2-7D94-4F5C-902B-0A09A6C4EC30}">
   <dimension ref="B26:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>

--- a/Requisitos/PC1-Producto - Pendientes - 202002.xlsx
+++ b/Requisitos/PC1-Producto - Pendientes - 202002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ander\Desktop\PC1PrograWeb\Requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CA51DA-2862-4604-8C85-E20B43B2BADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4935C4FA-8B9F-46B6-A319-20B099F4607D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1383,10 +1383,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2914,8 +2914,8 @@
   <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3110,7 +3110,7 @@
       <c r="I7" s="75"/>
       <c r="J7" s="75"/>
       <c r="K7" s="76"/>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="87" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       <c r="I8" s="75"/>
       <c r="J8" s="75"/>
       <c r="K8" s="76"/>
-      <c r="M8" s="85"/>
+      <c r="M8" s="87"/>
     </row>
     <row r="9" spans="1:13" ht="57" customHeight="1">
       <c r="A9" s="74"/>
@@ -3182,7 +3182,7 @@
       <c r="K10" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="M10" s="86" t="s">
+      <c r="M10" s="85" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       <c r="I12" s="75"/>
       <c r="J12" s="75"/>
       <c r="K12" s="76"/>
-      <c r="M12" s="87" t="s">
+      <c r="M12" s="86" t="s">
         <v>139</v>
       </c>
     </row>
